--- a/permissoes.xlsx
+++ b/permissoes.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecnico\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD285B3-3031-43EF-ABD8-67A09C751BB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" xr2:uid="{75B5CC22-9193-4DB0-BA32-B5F5D3819E75}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="32">
   <si>
     <t>Cargo</t>
   </si>
@@ -66,9 +60,6 @@
     <t>Permissões</t>
   </si>
   <si>
-    <t>Visualizar operações e vendas</t>
-  </si>
-  <si>
     <t>Editar banco de setores e cargos</t>
   </si>
   <si>
@@ -90,16 +81,46 @@
     <t>Vizualizar estoque</t>
   </si>
   <si>
-    <t>Nivel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vendas  </t>
+  </si>
+  <si>
+    <t>Administrativo</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Diretor</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Visualizar  e editar operações e vendas</t>
+  </si>
+  <si>
+    <t>setorfinanceiro</t>
+  </si>
+  <si>
+    <t>Herança</t>
+  </si>
+  <si>
+    <t>setorrh</t>
+  </si>
+  <si>
+    <t>setoradministrativo = setorfinanceir</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Catalogo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,15 +138,69 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -133,28 +208,553 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -163,6 +763,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -217,7 +827,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -269,7 +879,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -463,270 +1073,735 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE544F0-AB02-486D-BCD2-06D79A188D1D}">
-  <dimension ref="A2:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C9:C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="2:15" s="1" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="D4" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="44"/>
+      <c r="O5" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="37"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="45"/>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="47"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="45"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="47"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="45"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="45"/>
+    </row>
+    <row r="18" spans="1:15" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="47"/>
+    </row>
+    <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="F27" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="F28" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="F29" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+    </row>
+    <row r="30" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="F31" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="F32" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="G32" s="87"/>
+      <c r="H32" s="88"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="F33" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5">
-        <v>9</v>
-      </c>
+      <c r="G33" s="87"/>
+      <c r="H33" s="88"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
+  <mergeCells count="19">
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D19:D21"/>
     <mergeCell ref="E2:O2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/permissoes.xlsx
+++ b/permissoes.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecnico\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891C9A71-7D4E-4ED8-B1B4-72544251DD79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -96,52 +90,52 @@
     <t>Visualizar operações e vendas</t>
   </si>
   <si>
-    <t>ger_mercadoria</t>
-  </si>
-  <si>
-    <t>setor_rh</t>
-  </si>
-  <si>
-    <t>setor_financeiro : ger_mercadoria</t>
-  </si>
-  <si>
     <t>Recursos Humanos</t>
   </si>
   <si>
     <t>Classe</t>
   </si>
   <si>
-    <t xml:space="preserve">ger_geral : setor_administrativo </t>
-  </si>
-  <si>
-    <t>ger_logins</t>
-  </si>
-  <si>
-    <t>ger_logistica : setor_logistico</t>
-  </si>
-  <si>
-    <t>setor_logistico : ger_mercadoria</t>
-  </si>
-  <si>
-    <t>ger_financeiro : setor_financeiro</t>
-  </si>
-  <si>
-    <t>setor_vendas : ger_mercadoria</t>
-  </si>
-  <si>
-    <t>ger_vendas : setor_vendas</t>
-  </si>
-  <si>
-    <t>setor_adminsitrativo : ger_financeiro</t>
-  </si>
-  <si>
     <t>Visualizar e editar senhas</t>
+  </si>
+  <si>
+    <t>GerMercadoria</t>
+  </si>
+  <si>
+    <t>SetorRh</t>
+  </si>
+  <si>
+    <t>SetorFinanceiro : GerMercadoria</t>
+  </si>
+  <si>
+    <t>SetorLogistico : GerMercadoria</t>
+  </si>
+  <si>
+    <t>GerLogistica : SetorLogistico</t>
+  </si>
+  <si>
+    <t>SetorVendas : GerMercadoria</t>
+  </si>
+  <si>
+    <t>GerVendas :SetorVendas</t>
+  </si>
+  <si>
+    <t>SetorAdminsitrativo : GerFinanceiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GerGeral : SetorAdministrativo </t>
+  </si>
+  <si>
+    <t>GerLogins : SetorRH</t>
+  </si>
+  <si>
+    <t>GerFinanceiro : SetorFinanceiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -609,11 +603,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -630,9 +701,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -741,12 +809,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -787,9 +849,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,13 +871,184 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,7 +1057,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -836,181 +1072,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1331,822 +1456,863 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="12.26953125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.26953125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4" style="3" customWidth="1"/>
+    <col min="6" max="7" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65"/>
-      <c r="B2" s="71" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="60"/>
+    </row>
+    <row r="2" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61"/>
+      <c r="B2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="134"/>
+      <c r="F2" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="61"/>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="62"/>
+    </row>
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="136"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="60"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="67"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="66"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="42" t="s">
+      <c r="E5" s="120">
+        <v>1</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="60"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60"/>
+      <c r="B6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="127"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="60"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="128"/>
+      <c r="D7" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="151">
+        <v>2</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="60"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="122">
+        <v>3</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="48"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="60"/>
+    </row>
+    <row r="9" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="106"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="60"/>
+    </row>
+    <row r="10" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="60"/>
+      <c r="B10" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="107"/>
+      <c r="D10" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="87">
+        <v>4</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="75"/>
+      <c r="I10" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="60"/>
+    </row>
+    <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="99">
+        <v>5</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="60"/>
+    </row>
+    <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="60"/>
+    </row>
+    <row r="13" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60"/>
+      <c r="B13" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="60"/>
+    </row>
+    <row r="14" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60"/>
+      <c r="B14" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="114"/>
+      <c r="D14" s="145" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="85">
+        <v>6</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="60"/>
+    </row>
+    <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="146" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="102">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="48"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="60"/>
+    </row>
+    <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="109"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="60"/>
+    </row>
+    <row r="17" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="60"/>
+      <c r="B17" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="109"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="60"/>
+    </row>
+    <row r="18" spans="1:18" s="3" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="60"/>
+      <c r="B18" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="110"/>
+      <c r="D18" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="88">
+        <v>8</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="23"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="60"/>
+    </row>
+    <row r="19" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="111">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="68"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="64"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="67"/>
-    </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="64"/>
-      <c r="B5" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="67"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="64"/>
-      <c r="B6" s="58" t="s">
+      <c r="F19" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="42"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="60"/>
+    </row>
+    <row r="20" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="60"/>
+      <c r="B20" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="67"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="64"/>
-      <c r="B7" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="67"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="64"/>
-      <c r="B8" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="108" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="67"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="64"/>
-      <c r="B9" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="67"/>
-    </row>
-    <row r="10" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="64"/>
-      <c r="B10" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="123" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="122" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="67"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64"/>
-      <c r="B11" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="67"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="64"/>
-      <c r="B12" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="67"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="64"/>
-      <c r="B13" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="67"/>
-    </row>
-    <row r="14" spans="1:17" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="64"/>
-      <c r="B14" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="67"/>
-    </row>
-    <row r="15" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64"/>
-      <c r="B15" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="67"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="64"/>
-      <c r="B16" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="67"/>
-    </row>
-    <row r="17" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="64"/>
-      <c r="B17" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="67"/>
-    </row>
-    <row r="18" spans="1:17" s="3" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="64"/>
-      <c r="B18" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="124" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="126" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="125" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="67"/>
-    </row>
-    <row r="19" spans="1:17" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="64"/>
-      <c r="B19" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="130" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="127" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="67"/>
-    </row>
-    <row r="20" spans="1:17" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="64"/>
-      <c r="B20" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="132" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="30"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="96" t="s">
+        <v>16</v>
+      </c>
       <c r="K20" s="29"/>
-      <c r="L20" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="67"/>
-    </row>
-    <row r="21" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="64"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="60"/>
+    </row>
+    <row r="21" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="60"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="33" t="s">
+      <c r="C21" s="116"/>
+      <c r="D21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="152">
+        <v>10</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="35" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="37" t="s">
+      <c r="J21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="35" t="s">
         <v>16</v>
       </c>
       <c r="O21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="67"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-    </row>
-    <row r="25" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P21" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="60"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+    </row>
+    <row r="25" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:17" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="O33"/>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="O36"/>
       <c r="P36"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="O37"/>
       <c r="P37"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
@@ -2159,11 +2325,10 @@
       <c r="O38"/>
       <c r="P38"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
@@ -2176,11 +2341,10 @@
       <c r="O39"/>
       <c r="P39"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
@@ -2193,11 +2357,10 @@
       <c r="O40"/>
       <c r="P40"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
@@ -2210,11 +2373,10 @@
       <c r="O41"/>
       <c r="P41"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
-      <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
@@ -2227,11 +2389,10 @@
       <c r="O42"/>
       <c r="P42"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
-      <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
@@ -2244,11 +2405,10 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
@@ -2261,11 +2421,10 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
-      <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
@@ -2278,11 +2437,10 @@
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
@@ -2295,11 +2453,10 @@
       <c r="O46"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
-      <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
@@ -2312,11 +2469,10 @@
       <c r="O47"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
-      <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
@@ -2329,11 +2485,10 @@
       <c r="O48"/>
       <c r="P48"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
@@ -2346,11 +2501,10 @@
       <c r="O49"/>
       <c r="P49"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
-      <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
@@ -2363,11 +2517,10 @@
       <c r="O50"/>
       <c r="P50"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
-      <c r="E51"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
@@ -2381,7 +2534,19 @@
       <c r="P51"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="C8:C10"/>
@@ -2389,13 +2554,6 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/permissoes.xlsx
+++ b/permissoes.xlsx
@@ -111,9 +111,6 @@
     <t>SetorLogistico : GerMercadoria</t>
   </si>
   <si>
-    <t>GerLogistica : SetorLogistico</t>
-  </si>
-  <si>
     <t>SetorVendas : GerMercadoria</t>
   </si>
   <si>
@@ -126,10 +123,13 @@
     <t xml:space="preserve">GerGeral : SetorAdministrativo </t>
   </si>
   <si>
-    <t>GerLogins : SetorRH</t>
-  </si>
-  <si>
     <t>GerFinanceiro : SetorFinanceiro</t>
+  </si>
+  <si>
+    <t>GerRH : SetorRH</t>
+  </si>
+  <si>
+    <t>GerLogistico : SetorLogistico</t>
   </si>
 </sst>
 </file>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C10" s="107"/>
       <c r="D10" s="141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="87">
         <v>4</v>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="C14" s="114"/>
       <c r="D14" s="145" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E14" s="85">
         <v>6</v>
@@ -1954,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="102">
         <v>7</v>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C18" s="110"/>
       <c r="D18" s="149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="88">
         <v>8</v>
@@ -2088,7 +2088,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="111">
         <v>9</v>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C21" s="116"/>
       <c r="D21" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="152">
         <v>10</v>

--- a/permissoes.xlsx
+++ b/permissoes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="38">
   <si>
     <t>Cargo</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Classe</t>
   </si>
   <si>
-    <t>Visualizar e editar senhas</t>
-  </si>
-  <si>
     <t>GerMercadoria</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
   </si>
   <si>
     <t>GerLogistico : SetorLogistico</t>
+  </si>
+  <si>
+    <t>Editar nomes de usuário, senhas, cargos e setores de funcionarios</t>
+  </si>
+  <si>
+    <t>Editar cargos de funcionarios no seu setor</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -976,6 +979,30 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -994,61 +1021,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,37 +1057,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,9 +1099,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1126,16 +1108,40 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1456,7 +1462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1466,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,8 +1491,9 @@
     <col min="13" max="13" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="17" max="17" width="30.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1511,38 +1518,38 @@
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61"/>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="117" t="s">
+      <c r="E2" s="129"/>
+      <c r="F2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="119"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="127"/>
       <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="62"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="135"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
       <c r="F3" s="41" t="s">
         <v>7</v>
       </c>
@@ -1577,18 +1584,20 @@
         <v>15</v>
       </c>
       <c r="Q3" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="62"/>
+        <v>36</v>
+      </c>
+      <c r="R3" s="99" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
       <c r="B4" s="58"/>
       <c r="C4" s="59"/>
-      <c r="D4" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="136"/>
+      <c r="D4" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="101"/>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
       <c r="H4" s="33"/>
@@ -1605,20 +1614,20 @@
       <c r="O4" s="34"/>
       <c r="P4" s="33"/>
       <c r="Q4" s="33"/>
-      <c r="R4" s="60"/>
+      <c r="R4" s="33"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
       <c r="B5" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="137" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="120">
+      <c r="D5" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="132">
         <v>1</v>
       </c>
       <c r="F5" s="42"/>
@@ -1639,16 +1648,16 @@
         <v>16</v>
       </c>
       <c r="Q5" s="42"/>
-      <c r="R5" s="60"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60"/>
       <c r="B6" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="133"/>
       <c r="F6" s="21"/>
       <c r="G6" s="13"/>
       <c r="H6" s="21"/>
@@ -1667,18 +1676,18 @@
         <v>16</v>
       </c>
       <c r="Q6" s="21"/>
-      <c r="R6" s="60"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60"/>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="151">
+        <v>34</v>
+      </c>
+      <c r="E7" s="105">
         <v>2</v>
       </c>
       <c r="F7" s="28"/>
@@ -1701,20 +1710,22 @@
       <c r="Q7" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="60"/>
+      <c r="R7" s="65" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
       <c r="B8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="122">
+      <c r="D8" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="134">
         <v>3</v>
       </c>
       <c r="F8" s="68" t="s">
@@ -1739,16 +1750,16 @@
         <v>16</v>
       </c>
       <c r="Q8" s="19"/>
-      <c r="R8" s="60"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60"/>
       <c r="B9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="123"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
@@ -1771,16 +1782,16 @@
         <v>16</v>
       </c>
       <c r="Q9" s="21"/>
-      <c r="R9" s="60"/>
+      <c r="R9" s="21"/>
     </row>
     <row r="10" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="141" t="s">
-        <v>34</v>
+      <c r="C10" s="144"/>
+      <c r="D10" s="102" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="87">
         <v>4</v>
@@ -1809,20 +1820,22 @@
         <v>16</v>
       </c>
       <c r="Q10" s="23"/>
-      <c r="R10" s="60"/>
+      <c r="R10" s="86" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60"/>
       <c r="B11" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="99">
+      <c r="D11" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="107">
         <v>5</v>
       </c>
       <c r="F11" s="42"/>
@@ -1845,16 +1858,16 @@
       <c r="O11" s="11"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="42"/>
-      <c r="R11" s="60"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="60"/>
       <c r="B12" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="100"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="21"/>
       <c r="G12" s="18" t="s">
         <v>16</v>
@@ -1875,16 +1888,16 @@
       <c r="O12" s="13"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
-      <c r="R12" s="60"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="60"/>
       <c r="B13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="101"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="21"/>
       <c r="G13" s="18" t="s">
         <v>16</v>
@@ -1905,16 +1918,16 @@
       <c r="O13" s="13"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="60"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60"/>
       <c r="B14" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="145" t="s">
-        <v>36</v>
+      <c r="C14" s="151"/>
+      <c r="D14" s="103" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="85">
         <v>6</v>
@@ -1943,20 +1956,22 @@
         <v>16</v>
       </c>
       <c r="Q14" s="28"/>
-      <c r="R14" s="60"/>
+      <c r="R14" s="84" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="60"/>
       <c r="B15" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="146" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="102">
+      <c r="D15" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="110">
         <v>7</v>
       </c>
       <c r="F15" s="19"/>
@@ -1979,16 +1994,16 @@
       <c r="O15" s="48"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
-      <c r="R15" s="60"/>
+      <c r="R15" s="19"/>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="60"/>
       <c r="B16" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="103"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="21"/>
       <c r="G16" s="13"/>
       <c r="H16" s="21"/>
@@ -2009,16 +2024,16 @@
       <c r="O16" s="13"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="60"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60"/>
       <c r="B17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="104"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="112"/>
       <c r="F17" s="21"/>
       <c r="G17" s="13"/>
       <c r="H17" s="21"/>
@@ -2039,16 +2054,16 @@
       <c r="O17" s="13"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="60"/>
+      <c r="R17" s="21"/>
     </row>
     <row r="18" spans="1:18" s="3" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60"/>
       <c r="B18" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="149" t="s">
-        <v>31</v>
+      <c r="C18" s="147"/>
+      <c r="D18" s="104" t="s">
+        <v>30</v>
       </c>
       <c r="E18" s="88">
         <v>8</v>
@@ -2077,20 +2092,22 @@
         <v>16</v>
       </c>
       <c r="Q18" s="23"/>
-      <c r="R18" s="60"/>
+      <c r="R18" s="90" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
       <c r="B19" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="150" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="111">
+      <c r="D19" s="148" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="113">
         <v>9</v>
       </c>
       <c r="F19" s="97" t="s">
@@ -2117,16 +2134,16 @@
         <v>16</v>
       </c>
       <c r="Q19" s="42"/>
-      <c r="R19" s="60"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60"/>
       <c r="B20" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="111"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="98" t="s">
         <v>16</v>
       </c>
@@ -2151,18 +2168,18 @@
         <v>16</v>
       </c>
       <c r="Q20" s="28"/>
-      <c r="R20" s="60"/>
+      <c r="R20" s="28"/>
     </row>
     <row r="21" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="60"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="116"/>
+      <c r="C21" s="153"/>
       <c r="D21" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="152">
+        <v>32</v>
+      </c>
+      <c r="E21" s="106">
         <v>10</v>
       </c>
       <c r="F21" s="31" t="s">
@@ -2199,7 +2216,9 @@
       <c r="Q21" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="60"/>
+      <c r="R21" s="35" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
@@ -2535,25 +2554,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:Q2"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
